--- a/civ_bigram.xlsx
+++ b/civ_bigram.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('reddit', 'comment')</t>
+          <t>('reddit', 'kotakuinact')</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('al', 'gore')</t>
+          <t>('kotakuinact', 'comment')</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('polit', 'statement')</t>
+          <t>('al', 'gore')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('video', 'game')</t>
+          <t>('polit', 'statement')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('sea', 'level')</t>
+          <t>('video', 'game')</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -555,7 +555,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('ice', 'cap')</t>
+          <t>('sea', 'level')</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('man', 'make')</t>
+          <t>('ice', 'cap')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('year', 'ago')</t>
+          <t>('man', 'make')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('carbon', 'emiss')</t>
+          <t>('year', 'ago')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -607,7 +607,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('hockey', 'stick')</t>
+          <t>('carbon', 'emiss')</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('last', 'year')</t>
+          <t>('hockey', 'stick')</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('level', 'rise')</t>
+          <t>('last', 'year')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('co2', 'emiss')</t>
+          <t>('level', 'rise')</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -659,7 +659,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('nasa', 'gov')</t>
+          <t>('co2', 'emiss')</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -672,7 +672,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('specif', 'heat')</t>
+          <t>('nasa', 'gov')</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('black', 'peopl')</t>
+          <t>('specif', 'heat')</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('low', 'iq')</t>
+          <t>('black', 'peopl')</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('gather', 'storm')</t>
+          <t>('low', 'iq')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -724,7 +724,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('melt', 'ice')</t>
+          <t>('gather', 'storm')</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -737,7 +737,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('lord', 'believ')</t>
+          <t>('melt', 'ice')</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -750,7 +750,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('power', 'plant')</t>
+          <t>('lord', 'believ')</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('chang', 'polit')</t>
+          <t>('power', 'plant')</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('pari', 'agreement')</t>
+          <t>('chang', 'polit')</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>('co2', 'level')</t>
+          <t>('pari', 'agreement')</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -802,7 +802,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('bell', 'curv')</t>
+          <t>('co2', 'level')</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -815,7 +815,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('coal', 'oil')</t>
+          <t>('bell', 'curv')</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('publish', 'report')</t>
+          <t>('coal', 'oil')</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -841,7 +841,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('carbon', 'pollut')</t>
+          <t>('publish', 'report')</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -854,7 +854,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('global', 'catastroph')</t>
+          <t>('carbon', 'pollut')</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('mind', 'worm')</t>
+          <t>('global', 'catastroph')</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('climat', 'model')</t>
+          <t>('mind', 'worm')</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('natur', 'disast')</t>
+          <t>('climat', 'model')</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -906,7 +906,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('carbon', 'dioxid')</t>
+          <t>('natur', 'disast')</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('realli', 'want')</t>
+          <t>('carbon', 'dioxid')</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('chang', 'thing')</t>
+          <t>('realli', 'want')</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('make', 'sen')</t>
+          <t>('chang', 'thing')</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -958,7 +958,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('human', 'hive')</t>
+          <t>('make', 'sen')</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('degre', 'celsius')</t>
+          <t>('human', 'hive')</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -984,7 +984,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('giss', 'nasa')</t>
+          <t>('degre', 'celsius')</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -997,7 +997,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('climat', 'scienc')</t>
+          <t>('giss', 'nasa')</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('chang', 'real')</t>
+          <t>('climat', 'scienc')</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('high', 'co2')</t>
+          <t>('chang', 'real')</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('green', 'tech')</t>
+          <t>('high', 'co2')</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('late', 'game')</t>
+          <t>('green', 'tech')</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('global', 'climat')</t>
+          <t>('late', 'game')</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('solar', 'panel')</t>
+          <t>('global', 'climat')</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('year', 'year')</t>
+          <t>('solar', 'panel')</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('grow', 'wheat')</t>
+          <t>('year', 'year')</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('get', 'grip')</t>
+          <t>('grow', 'wheat')</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('greenhous', 'effect')</t>
+          <t>('get', 'grip')</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('use', 'coal')</t>
+          <t>('greenhous', 'effect')</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('think', 'peopl')</t>
+          <t>('use', 'coal')</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('import', 'peopl')</t>
+          <t>('think', 'peopl')</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('unit', 'nation')</t>
+          <t>('import', 'peopl')</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('nation', 'publish')</t>
+          <t>('unit', 'nation')</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('report', 'last')</t>
+          <t>('nation', 'publish')</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('last', 'month')</t>
+          <t>('report', 'last')</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('month', 'warn')</t>
+          <t>('last', 'month')</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('warn', 'drastic')</t>
+          <t>('month', 'warn')</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('drastic', 'refor')</t>
+          <t>('warn', 'drastic')</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('refor', 'effort')</t>
+          <t>('drastic', 'refor')</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('effort', 'reduct')</t>
+          <t>('refor', 'effort')</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('reduct', 'carbon')</t>
+          <t>('effort', 'reduct')</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('pollut', 'planet')</t>
+          <t>('reduct', 'carbon')</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('planet', 'soon')</t>
+          <t>('pollut', 'planet')</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('soon', 'face')</t>
+          <t>('planet', 'soon')</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('face', 'irrever')</t>
+          <t>('soon', 'face')</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('irrever', 'global')</t>
+          <t>('face', 'irrever')</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('web', 'archiv')</t>
+          <t>('irrever', 'global')</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('archiv', 'web')</t>
+          <t>('web', 'archiv')</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('time', 'sinc')</t>
+          <t>('archiv', 'web')</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('polit', 'issu')</t>
+          <t>('time', 'sinc')</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('thing', 'happen')</t>
+          <t>('polit', 'issu')</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('effect', 'climat')</t>
+          <t>('thing', 'happen')</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('call', 'power')</t>
+          <t>('effect', 'climat')</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('ocean', 'rise')</t>
+          <t>('call', 'power')</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('scienc', 'sciencemag')</t>
+          <t>('ocean', 'rise')</t>
         </is>
       </c>
       <c r="C81" t="n">

--- a/civ_bigram.xlsx
+++ b/civ_bigram.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1486,6 +1486,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/civ_bigram.xlsx
+++ b/civ_bigram.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>129</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('global', 'warm')</t>
+          <t>('�', 't')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('3rd', 'world')</t>
+          <t>('global', 'warm')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('reddit', 'kotakuinact')</t>
+          <t>('�', 'r')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('kotakuinact', 'comment')</t>
+          <t>('sea', 'level')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('al', 'gore')</t>
+          <t>('don', '�')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('video', 'game')</t>
+          <t>('al', 'gore')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('sea', 'level')</t>
+          <t>('�', 'm')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('ice', 'cap')</t>
+          <t>('year', 'ago')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('man', 'make')</t>
+          <t>('3rd', 'world')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('year', 'ago')</t>
+          <t>('video', 'game')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('carbon', 'emiss')</t>
+          <t>('level', 'rise')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('hockey', 'stick')</t>
+          <t>('reddit', 'kotakuinact')</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('last', 'year')</t>
+          <t>('kotakuinact', 'comment')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('level', 'rise')</t>
+          <t>('ice', 'cap')</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('co2', 'emiss')</t>
+          <t>('last', 'year')</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('nasa', 'gov')</t>
+          <t>('man', 'make')</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('specif', 'heat')</t>
+          <t>('ice', 'age')</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('black', 'peopl')</t>
+          <t>('hockey', 'stick')</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('low', 'iq')</t>
+          <t>('late', 'game')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('gather', 'storm')</t>
+          <t>('year', 'year')</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('melt', 'ice')</t>
+          <t>('gather', 'storm')</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('lord', 'believ')</t>
+          <t>('co2', 'emiss')</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('power', 'plant')</t>
+          <t>('carbon', 'emiss')</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('chang', 'polit')</t>
+          <t>('nasa', 'gov')</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('co2', 'level')</t>
+          <t>('specif', 'heat')</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('bell', 'curv')</t>
+          <t>('power', 'plant')</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('coal', 'oil')</t>
+          <t>('peopl', 'think')</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('publish', 'report')</t>
+          <t>('co2', 'level')</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('carbon', 'pollut')</t>
+          <t>('black', 'peopl')</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('global', 'catastroph')</t>
+          <t>('low', 'iq')</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('mind', 'worm')</t>
+          <t>('coal', 'oil')</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('climat', 'model')</t>
+          <t>('�', '�')</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('natur', 'disast')</t>
+          <t>('�', 'll')</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('carbon', 'dioxid')</t>
+          <t>('polit', 'issu')</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('realli', 'want')</t>
+          <t>('melt', 'ice')</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('chang', 'thing')</t>
+          <t>('effect', 'climat')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('make', 'sen')</t>
+          <t>('carbon', 'dioxid')</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('human', 'hive')</t>
+          <t>('realli', 'want')</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('degre', 'celsius')</t>
+          <t>('lord', 'believ')</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('giss', 'nasa')</t>
+          <t>('chang', 'polit')</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('climat', 'scienc')</t>
+          <t>('degre', 'celsius')</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('chang', 'real')</t>
+          <t>('climat', 'scientist')</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('high', 'co2')</t>
+          <t>('climat', 'scienc')</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('green', 'tech')</t>
+          <t>('global', 'climat')</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('late', 'game')</t>
+          <t>('greenhous', 'effect')</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('global', 'climat')</t>
+          <t>('bell', 'curv')</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('solar', 'panel')</t>
+          <t>('tile', 'flood')</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('year', 'year')</t>
+          <t>('see', '�')</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('grow', 'wheat')</t>
+          <t>('publish', 'report')</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('get', 'grip')</t>
+          <t>('carbon', 'pollut')</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('greenhous', 'effect')</t>
+          <t>('global', 'catastroph')</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('use', 'coal')</t>
+          <t>('thing', 'happen')</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('think', 'peopl')</t>
+          <t>('mind', 'worm')</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('import', 'peopl')</t>
+          <t>('climat', 'model')</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('unit', 'nation')</t>
+          <t>('natur', 'disast')</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('nation', 'publish')</t>
+          <t>('fossil', 'fuel')</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('report', 'last')</t>
+          <t>('chang', 'thing')</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('last', 'month')</t>
+          <t>('say', 'thing')</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('month', 'warn')</t>
+          <t>('make', 'sen')</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('warn', 'drastic')</t>
+          <t>('human', 'hive')</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('drastic', 'refor')</t>
+          <t>('giss', 'nasa')</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('refor', 'effort')</t>
+          <t>('believ', 'climat')</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('effort', 'reduct')</t>
+          <t>('go', 'back')</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('reduct', 'carbon')</t>
+          <t>('chang', 'real')</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('pollut', 'planet')</t>
+          <t>('high', 'co2')</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('planet', 'soon')</t>
+          <t>('feel', 'good')</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('soon', 'face')</t>
+          <t>('green', 'tech')</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('face', 'irrever')</t>
+          <t>('solar', 'panel')</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('irrever', 'global')</t>
+          <t>('long', 'time')</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('web', 'archiv')</t>
+          <t>('chang', 'climat')</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('archiv', 'web')</t>
+          <t>('polar', 'bear')</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('time', 'sinc')</t>
+          <t>('grow', 'wheat')</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('polit', 'issu')</t>
+          <t>('get', 'grip')</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('thing', 'happen')</t>
+          <t>('say', 'year')</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('effect', 'climat')</t>
+          <t>('take', 'much')</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('call', 'power')</t>
+          <t>('use', 'coal')</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('ocean', 'rise')</t>
+          <t>('make', 'think')</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/civ_bigram.xlsx
+++ b/civ_bigram.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('�', 't')</t>
+          <t>('global', 'warm')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('global', 'warm')</t>
+          <t>('sea', 'level')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('�', 'r')</t>
+          <t>('polit', 'statement')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('sea', 'level')</t>
+          <t>('al', 'gore')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('don', '�')</t>
+          <t>('year', 'ago')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('polit', 'statement')</t>
+          <t>('3rd', 'world')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('al', 'gore')</t>
+          <t>('video', 'game')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('�', 'm')</t>
+          <t>('level', 'rise')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('year', 'ago')</t>
+          <t>('reddit', 'kotakuinact')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('3rd', 'world')</t>
+          <t>('kotakuinact', 'comment')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('video', 'game')</t>
+          <t>('ice', 'cap')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('level', 'rise')</t>
+          <t>('last', 'year')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('reddit', 'kotakuinact')</t>
+          <t>('man', 'make')</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('kotakuinact', 'comment')</t>
+          <t>('ice', 'age')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('ice', 'cap')</t>
+          <t>('hockey', 'stick')</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('last', 'year')</t>
+          <t>('late', 'game')</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('man', 'make')</t>
+          <t>('year', 'year')</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('ice', 'age')</t>
+          <t>('gather', 'storm')</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('hockey', 'stick')</t>
+          <t>('co2', 'emiss')</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('late', 'game')</t>
+          <t>('carbon', 'emiss')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('year', 'year')</t>
+          <t>('nasa', 'gov')</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -737,7 +737,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('gather', 'storm')</t>
+          <t>('pari', 'agreement')</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -750,7 +750,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('co2', 'emiss')</t>
+          <t>('specif', 'heat')</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('carbon', 'emiss')</t>
+          <t>('power', 'plant')</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('nasa', 'gov')</t>
+          <t>('peopl', 'think')</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>('pari', 'agreement')</t>
+          <t>('co2', 'level')</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('specif', 'heat')</t>
+          <t>('black', 'peopl')</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -815,7 +815,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('power', 'plant')</t>
+          <t>('low', 'iq')</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -828,7 +828,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('peopl', 'think')</t>
+          <t>('coal', 'oil')</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('co2', 'level')</t>
+          <t>('polit', 'issu')</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('black', 'peopl')</t>
+          <t>('melt', 'ice')</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('low', 'iq')</t>
+          <t>('effect', 'climat')</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('coal', 'oil')</t>
+          <t>('carbon', 'dioxid')</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('�', '�')</t>
+          <t>('realli', 'want')</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('�', 'll')</t>
+          <t>('lord', 'believ')</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -919,7 +919,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('polit', 'issu')</t>
+          <t>('chang', 'polit')</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('melt', 'ice')</t>
+          <t>('degre', 'celsius')</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('effect', 'climat')</t>
+          <t>('climat', 'scientist')</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -958,7 +958,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('carbon', 'dioxid')</t>
+          <t>('climat', 'scienc')</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('realli', 'want')</t>
+          <t>('chang', 'real')</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -984,7 +984,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('lord', 'believ')</t>
+          <t>('global', 'climat')</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -997,7 +997,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('chang', 'polit')</t>
+          <t>('greenhous', 'effect')</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('degre', 'celsius')</t>
+          <t>('bell', 'curv')</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('climat', 'scientist')</t>
+          <t>('tile', 'flood')</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('climat', 'scienc')</t>
+          <t>('publish', 'report')</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('global', 'climat')</t>
+          <t>('carbon', 'pollut')</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('greenhous', 'effect')</t>
+          <t>('global', 'catastroph')</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('bell', 'curv')</t>
+          <t>('thing', 'happen')</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('tile', 'flood')</t>
+          <t>('mind', 'worm')</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('see', '�')</t>
+          <t>('climat', 'model')</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('publish', 'report')</t>
+          <t>('natur', 'disast')</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('carbon', 'pollut')</t>
+          <t>('fossil', 'fuel')</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('global', 'catastroph')</t>
+          <t>('chang', 'thing')</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('thing', 'happen')</t>
+          <t>('say', 'thing')</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('mind', 'worm')</t>
+          <t>('settl', 'scienc')</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('climat', 'model')</t>
+          <t>('make', 'sen')</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('natur', 'disast')</t>
+          <t>('human', 'hive')</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('fossil', 'fuel')</t>
+          <t>('giss', 'nasa')</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('chang', 'thing')</t>
+          <t>('believ', 'climat')</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('say', 'thing')</t>
+          <t>('go', 'back')</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('make', 'sen')</t>
+          <t>('chang', 'happen')</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('human', 'hive')</t>
+          <t>('high', 'co2')</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('giss', 'nasa')</t>
+          <t>('feel', 'good')</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('believ', 'climat')</t>
+          <t>('green', 'tech')</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('go', 'back')</t>
+          <t>('solar', 'panel')</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('chang', 'real')</t>
+          <t>('long', 'time')</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('high', 'co2')</t>
+          <t>('chang', 'climat')</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('feel', 'good')</t>
+          <t>('polar', 'bear')</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('green', 'tech')</t>
+          <t>('grow', 'wheat')</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('solar', 'panel')</t>
+          <t>('get', 'grip')</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('long', 'time')</t>
+          <t>('say', 'year')</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('chang', 'climat')</t>
+          <t>('take', 'much')</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('polar', 'bear')</t>
+          <t>('use', 'coal')</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('grow', 'wheat')</t>
+          <t>('make', 'think')</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('get', 'grip')</t>
+          <t>('think', 'peopl')</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('say', 'year')</t>
+          <t>('import', 'peopl')</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('take', 'much')</t>
+          <t>('hundr', 'year')</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('use', 'coal')</t>
+          <t>('corn', 'seed')</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('make', 'think')</t>
+          <t>('unit', 'nation')</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
